--- a/shifokorlar_ro'yxati.xlsx
+++ b/shifokorlar_ro'yxati.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t xml:space="preserve">ID raqami </t>
   </si>
@@ -38,100 +38,79 @@
     <t>1</t>
   </si>
   <si>
-    <t>salom</t>
-  </si>
-  <si>
-    <t>val</t>
-  </si>
-  <si>
-    <t>fwa</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>kelishildi</t>
-  </si>
-  <si>
-    <t>123</t>
+    <t>nans</t>
+  </si>
+  <si>
+    <t>Toshkent sh Olmazor t</t>
+  </si>
+  <si>
+    <t>jsj</t>
+  </si>
+  <si>
+    <t>jsjs</t>
+  </si>
+  <si>
+    <t>sjjs</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>dwa</t>
-  </si>
-  <si>
-    <t>xkfjbkdj</t>
-  </si>
-  <si>
-    <t>fawljfawl</t>
-  </si>
-  <si>
-    <t>;fmg</t>
-  </si>
-  <si>
-    <t>fkldkgnld</t>
-  </si>
-  <si>
-    <t>fwalihfioaw</t>
+    <t>jaja</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>sgg</t>
-  </si>
-  <si>
-    <t>ali alijonov</t>
-  </si>
-  <si>
-    <t>rgsr</t>
-  </si>
-  <si>
-    <t>sgas</t>
-  </si>
-  <si>
-    <t>lkfa</t>
-  </si>
-  <si>
-    <t>dkjsf</t>
+    <t>Jsjs</t>
+  </si>
+  <si>
+    <t>Toshkent sh Mirobod t</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>jsja</t>
+  </si>
+  <si>
+    <t>iu</t>
+  </si>
+  <si>
+    <t>uhu</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>ali</t>
-  </si>
-  <si>
-    <t>eges</t>
-  </si>
-  <si>
-    <t>fwafaw</t>
-  </si>
-  <si>
-    <t>dawd</t>
-  </si>
-  <si>
-    <t>213241</t>
+    <t>sjsj</t>
+  </si>
+  <si>
+    <t>sjs</t>
+  </si>
+  <si>
+    <t>sjj</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>gh</t>
-  </si>
-  <si>
-    <t>uu</t>
-  </si>
-  <si>
-    <t>hhu</t>
-  </si>
-  <si>
-    <t>uh</t>
-  </si>
-  <si>
-    <t>uuu</t>
+    <t>jajs</t>
+  </si>
+  <si>
+    <t>sja</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>jja</t>
+  </si>
+  <si>
+    <t>Toshkent sh Chilonzor t</t>
+  </si>
+  <si>
+    <t>ksks</t>
   </si>
 </sst>
 </file>
@@ -176,7 +155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -222,102 +201,125 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
